--- a/Crescendo 2024 Scouting Data.xlsx
+++ b/Crescendo 2024 Scouting Data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,6 +1518,128 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"Red</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>"F"</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>"0.3510.840"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>"false"</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>"3"</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>"6"</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>"2"</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>"2"</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>"2"</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>"false"</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>"false"</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>"false"</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>"false"</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>"Sat Jan 06 2024 21:14:44 GMT-0500 (Eastern Standard Time)"</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
